--- a/model/datasets/Dengue_PH_Aggregated.xlsx
+++ b/model/datasets/Dengue_PH_Aggregated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cirrolytix\Hackathon\NASA Space Challenge 2019\01_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\GitHub\nasa_hack\model\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9F0D7-FE1C-4153-89C4-6C53DFB8EEE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B979918-E000-4FF1-8499-4FC86FFA9036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{474A4E77-9103-4265-8DA5-7B5050C7D9D5}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>GTrend_Dengue_Med</t>
   </si>
   <si>
-    <t>Gtrend_Dengue_Sym</t>
+    <t>GTrend_Dengue_Sym</t>
   </si>
 </sst>
 </file>
@@ -416,10 +416,10 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
